--- a/Assets/Resources/Data/Alcana.xlsx
+++ b/Assets/Resources/Data/Alcana.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alcana" sheetId="1" r:id="rId1"/>
@@ -263,8 +263,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -277,17 +277,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,9 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +307,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,28 +351,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,8 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +382,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,9 +414,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -429,187 +429,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,26 +623,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,21 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -693,6 +684,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +712,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,7 +728,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,136 +737,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
